--- a/Test Data/Verify_40V_On_Addition_Deletion_Of_Zetfast.xlsx
+++ b/Test Data/Verify_40V_On_Addition_Deletion_Of_Zetfast.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhosash\Desktop\23rd Jan\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Color Codes</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>XLM800-Zetfas-C</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>40V (A)</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -267,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +668,9 @@
       <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
@@ -689,7 +700,9 @@
       <c r="E8" s="6">
         <v>14</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
@@ -719,7 +732,9 @@
       <c r="E9" s="6">
         <v>14</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
@@ -732,15 +747,6 @@
       <c r="J9" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Test Data/Verify_40V_On_Addition_Deletion_Of_Zetfast.xlsx
+++ b/Test Data/Verify_40V_On_Addition_Deletion_Of_Zetfast.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,7 +134,7 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>40V (A)</t>
+    <t>40V Rail(A)</t>
   </si>
 </sst>
 </file>
@@ -268,14 +268,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +560,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,12 +574,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
@@ -590,10 +590,10 @@
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
@@ -700,7 +700,7 @@
       <c r="E8" s="6">
         <v>14</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -732,7 +732,7 @@
       <c r="E9" s="6">
         <v>14</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="6" t="s">

--- a/Test Data/Verify_40V_On_Addition_Deletion_Of_Zetfast.xlsx
+++ b/Test Data/Verify_40V_On_Addition_Deletion_Of_Zetfast.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8CA4DE-741B-4C38-9006-E3FE328623EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Color Codes</t>
   </si>
@@ -80,15 +81,6 @@
     <t/>
   </si>
   <si>
-    <t>CPU 801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify 40V Load On Addition Deletion of Ethernet </t>
-  </si>
-  <si>
-    <t>verify40VLoadOnEthernetAddDelete</t>
-  </si>
-  <si>
     <t>40 V load</t>
   </si>
   <si>
@@ -98,9 +90,6 @@
     <t>Gallery Type</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>Loops</t>
   </si>
   <si>
@@ -135,12 +124,24 @@
   </si>
   <si>
     <t>40V Rail(A)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>verify40VLoadOnZetfastLoopAddDelete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify 40V Load On Addition Deletion of Zetfast loop and its devices </t>
+  </si>
+  <si>
+    <t>NGC-601/T1460 OR TC-211</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -602,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -615,7 +616,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -631,7 +634,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -640,16 +643,16 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="G6" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -669,19 +672,19 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -691,8 +694,8 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
@@ -701,19 +704,19 @@
         <v>14</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -733,19 +736,19 @@
         <v>14</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="J9" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
